--- a/Code/Results/Cases/Case_4_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.51631407800428</v>
+        <v>11.06403580291998</v>
       </c>
       <c r="C2">
-        <v>7.294900295787091</v>
+        <v>4.377007299558759</v>
       </c>
       <c r="D2">
-        <v>12.17038921134028</v>
+        <v>14.94406876482549</v>
       </c>
       <c r="E2">
-        <v>13.16705391991911</v>
+        <v>16.35678265942679</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>25.71180632734153</v>
+        <v>34.77004468297362</v>
       </c>
       <c r="H2">
-        <v>9.659532735772435</v>
+        <v>15.83897694954581</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.886579020691588</v>
+        <v>9.334096853267642</v>
       </c>
       <c r="K2">
-        <v>11.85402776355446</v>
+        <v>10.42670214008421</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.36388434958704</v>
+        <v>19.12543094865401</v>
       </c>
       <c r="O2">
-        <v>16.17630423482513</v>
+        <v>24.90485738767283</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.61062270444893</v>
+        <v>10.80301688503346</v>
       </c>
       <c r="C3">
-        <v>6.900945147944332</v>
+        <v>4.165957524377777</v>
       </c>
       <c r="D3">
-        <v>11.65917179223175</v>
+        <v>14.87956042906489</v>
       </c>
       <c r="E3">
-        <v>12.62374975165138</v>
+        <v>16.29229328350535</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>25.28722350371914</v>
+        <v>34.82110890560872</v>
       </c>
       <c r="H3">
-        <v>9.695412945928652</v>
+        <v>15.88369070356707</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.792788419715903</v>
+        <v>9.340605682173548</v>
       </c>
       <c r="K3">
-        <v>11.12782697531564</v>
+        <v>10.24874268582078</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.56274685163212</v>
+        <v>19.18491144972413</v>
       </c>
       <c r="O3">
-        <v>16.12854794144174</v>
+        <v>24.9719954470897</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.02170046992923</v>
+        <v>10.64155852741815</v>
       </c>
       <c r="C4">
-        <v>6.64716082560152</v>
+        <v>4.029951350874351</v>
       </c>
       <c r="D4">
-        <v>11.34119026842851</v>
+        <v>14.84316532035108</v>
       </c>
       <c r="E4">
-        <v>12.28646086371904</v>
+        <v>16.25624913527222</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>25.04978680126025</v>
+        <v>34.8620878796265</v>
       </c>
       <c r="H4">
-        <v>9.723338176614533</v>
+        <v>15.91353829265657</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.737503387974866</v>
+        <v>9.34598782413817</v>
       </c>
       <c r="K4">
-        <v>10.6573209072099</v>
+        <v>10.1395938675004</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.68753960265322</v>
+        <v>19.22313279394131</v>
       </c>
       <c r="O4">
-        <v>16.11211280437148</v>
+        <v>25.01811877923332</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.7734104994691</v>
+        <v>10.57556235041867</v>
       </c>
       <c r="C5">
-        <v>6.540799038723949</v>
+        <v>3.972953084123236</v>
       </c>
       <c r="D5">
-        <v>11.21077510884248</v>
+        <v>14.82915385038628</v>
       </c>
       <c r="E5">
-        <v>12.14828781664693</v>
+        <v>16.24246555571386</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>24.95881679195605</v>
+        <v>34.88120109367515</v>
       </c>
       <c r="H5">
-        <v>9.736149712616182</v>
+        <v>15.92630311064896</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.715565038472098</v>
+        <v>9.348529875553</v>
       </c>
       <c r="K5">
-        <v>10.45941270381242</v>
+        <v>10.0952014854398</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.73909197558027</v>
+        <v>19.23913708203697</v>
       </c>
       <c r="O5">
-        <v>16.10854727827841</v>
+        <v>25.03814459938284</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.73167957296995</v>
+        <v>10.56459458946149</v>
       </c>
       <c r="C6">
-        <v>6.522961677249272</v>
+        <v>3.963394768307788</v>
       </c>
       <c r="D6">
-        <v>11.18907542523334</v>
+        <v>14.82687709678217</v>
       </c>
       <c r="E6">
-        <v>12.12530691093206</v>
+        <v>16.24023175479338</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>24.94405860410241</v>
+        <v>34.88452041634758</v>
       </c>
       <c r="H6">
-        <v>9.738362084561889</v>
+        <v>15.9284590361634</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.711958189591572</v>
+        <v>9.348973055330207</v>
       </c>
       <c r="K6">
-        <v>10.4261780826459</v>
+        <v>10.08783706733119</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.74769500386523</v>
+        <v>19.24182051686411</v>
       </c>
       <c r="O6">
-        <v>16.10814115366602</v>
+        <v>25.04154411016138</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.01838560788202</v>
+        <v>10.64066915837942</v>
       </c>
       <c r="C7">
-        <v>6.645738234951463</v>
+        <v>4.029188970031348</v>
       </c>
       <c r="D7">
-        <v>11.33943455302243</v>
+        <v>14.84297302247006</v>
       </c>
       <c r="E7">
-        <v>12.28460006261308</v>
+        <v>16.25605956779932</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>25.04853661239488</v>
+        <v>34.86233588243325</v>
       </c>
       <c r="H7">
-        <v>9.723505225935989</v>
+        <v>15.91370800740704</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.737205113231725</v>
+        <v>9.346020694526592</v>
       </c>
       <c r="K7">
-        <v>10.65467681207122</v>
+        <v>10.13899475007745</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.68823200036978</v>
+        <v>19.2233468955581</v>
       </c>
       <c r="O7">
-        <v>16.11205218305362</v>
+        <v>25.01838387625402</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.21081646007468</v>
+        <v>10.97434203588207</v>
       </c>
       <c r="C8">
-        <v>7.161558442044027</v>
+        <v>4.305591766609813</v>
       </c>
       <c r="D8">
-        <v>11.99508016161684</v>
+        <v>14.92116679596398</v>
       </c>
       <c r="E8">
-        <v>12.98060602356645</v>
+        <v>16.33381654677598</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>25.56055267644902</v>
+        <v>34.78565034458819</v>
       </c>
       <c r="H8">
-        <v>9.670650015565069</v>
+        <v>15.85389749574218</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.853769427097689</v>
+        <v>9.336053723530444</v>
       </c>
       <c r="K8">
-        <v>11.60874909870926</v>
+        <v>10.36535082480615</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.43190720204358</v>
+        <v>19.14558774986147</v>
       </c>
       <c r="O8">
-        <v>16.15709859056053</v>
+        <v>24.92698834927973</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.29085316440607</v>
+        <v>11.61507664271142</v>
       </c>
       <c r="C9">
-        <v>8.077173545914372</v>
+        <v>4.795251911110246</v>
       </c>
       <c r="D9">
-        <v>13.2409692444915</v>
+        <v>15.0994320857208</v>
       </c>
       <c r="E9">
-        <v>14.30831620577941</v>
+        <v>16.51393521307705</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>26.75085913202295</v>
+        <v>34.71188418810839</v>
       </c>
       <c r="H9">
-        <v>9.616101979068743</v>
+        <v>15.75560217032308</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.100070100655782</v>
+        <v>9.327486036600106</v>
       </c>
       <c r="K9">
-        <v>13.28421789930003</v>
+        <v>10.80773116230705</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.94955817454024</v>
+        <v>19.00653214049431</v>
       </c>
       <c r="O9">
-        <v>16.35238824983689</v>
+        <v>24.7867305129738</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.6646301459847</v>
+        <v>12.07232836578513</v>
       </c>
       <c r="C10">
-        <v>8.690059292234258</v>
+        <v>5.121576712459789</v>
       </c>
       <c r="D10">
-        <v>14.12380437595548</v>
+        <v>15.24477214509719</v>
       </c>
       <c r="E10">
-        <v>15.25235733783677</v>
+        <v>16.66230872535537</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>27.74001769572027</v>
+        <v>34.70465536607496</v>
       </c>
       <c r="H10">
-        <v>9.609254936134274</v>
+        <v>15.69496873900329</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.291069278946133</v>
+        <v>9.327856648749879</v>
       </c>
       <c r="K10">
-        <v>14.39651370859749</v>
+        <v>11.12864537625443</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.60600986744776</v>
+        <v>18.91247046009035</v>
       </c>
       <c r="O10">
-        <v>16.56723152477348</v>
+        <v>24.70755219758524</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.25675190419489</v>
+        <v>12.27641844868482</v>
       </c>
       <c r="C11">
-        <v>8.955767184605303</v>
+        <v>5.262546494258237</v>
       </c>
       <c r="D11">
-        <v>14.51706795972358</v>
+        <v>15.31381551387775</v>
       </c>
       <c r="E11">
-        <v>15.67361198288928</v>
+        <v>16.73309776789767</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>28.21485461626109</v>
+        <v>34.71159617492079</v>
       </c>
       <c r="H11">
-        <v>9.614093127116201</v>
+        <v>15.66990149270735</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.37998116177375</v>
+        <v>9.329465047433153</v>
       </c>
       <c r="K11">
-        <v>14.8770144663901</v>
+        <v>11.2731063604596</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.45170984658232</v>
+        <v>18.87142065965516</v>
       </c>
       <c r="O11">
-        <v>16.68170051504369</v>
+        <v>24.67673630501803</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.476311485209</v>
+        <v>12.35306372380256</v>
       </c>
       <c r="C12">
-        <v>9.054498377618344</v>
+        <v>5.314838788305674</v>
       </c>
       <c r="D12">
-        <v>14.66470551431367</v>
+        <v>15.34036366164677</v>
       </c>
       <c r="E12">
-        <v>15.83186459576612</v>
+        <v>16.76035963343499</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>28.39821968702502</v>
+        <v>34.71569576037309</v>
       </c>
       <c r="H12">
-        <v>9.617131467082359</v>
+        <v>15.6607709661093</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.413928332485341</v>
+        <v>9.330280330736818</v>
       </c>
       <c r="K12">
-        <v>15.05533005993045</v>
+        <v>11.32754023673302</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.39353368279237</v>
+        <v>18.8561249470402</v>
       </c>
       <c r="O12">
-        <v>16.72754849703183</v>
+        <v>24.6658167755737</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.42923194234982</v>
+        <v>12.33658637109288</v>
       </c>
       <c r="C13">
-        <v>9.033318750521008</v>
+        <v>5.303625383285273</v>
       </c>
       <c r="D13">
-        <v>14.63296730301955</v>
+        <v>15.3346284177102</v>
       </c>
       <c r="E13">
-        <v>15.7978396320223</v>
+        <v>16.75446833484894</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>28.35857100981634</v>
+        <v>34.7147474163392</v>
       </c>
       <c r="H13">
-        <v>9.616422446946595</v>
+        <v>15.66272128974597</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.406605025584073</v>
+        <v>9.330095587475629</v>
       </c>
       <c r="K13">
-        <v>15.01708801832243</v>
+        <v>11.31582974005172</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.40605218460135</v>
+        <v>18.85940809836266</v>
       </c>
       <c r="O13">
-        <v>16.71756161822896</v>
+        <v>24.66813512071383</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.27490835689245</v>
+        <v>12.28273732744629</v>
       </c>
       <c r="C14">
-        <v>8.963927669194893</v>
+        <v>5.266870529611306</v>
       </c>
       <c r="D14">
-        <v>14.52924030915432</v>
+        <v>15.31599167666483</v>
       </c>
       <c r="E14">
-        <v>15.6866573581732</v>
+        <v>16.73533159298083</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>28.22986906181978</v>
+        <v>34.7119039672123</v>
       </c>
       <c r="H14">
-        <v>9.614318554961015</v>
+        <v>15.66914306469826</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.382768511671608</v>
+        <v>9.329527993442809</v>
       </c>
       <c r="K14">
-        <v>14.89175737645754</v>
+        <v>11.27759037087852</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.44691875514409</v>
+        <v>18.8701572893181</v>
       </c>
       <c r="O14">
-        <v>16.68542180475868</v>
+        <v>24.67582291328629</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.17977496581216</v>
+        <v>12.24966783053676</v>
       </c>
       <c r="C15">
-        <v>8.921177931499113</v>
+        <v>5.244214797967168</v>
       </c>
       <c r="D15">
-        <v>14.46553532326803</v>
+        <v>15.30462805943833</v>
       </c>
       <c r="E15">
-        <v>15.61838766161039</v>
+        <v>16.72366857065632</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.15149764358483</v>
+        <v>34.7103538591639</v>
       </c>
       <c r="H15">
-        <v>9.613188828802025</v>
+        <v>15.67312372282166</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.368203816476411</v>
+        <v>9.329207155192377</v>
       </c>
       <c r="K15">
-        <v>14.81451559957113</v>
+        <v>11.25413096797453</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.47198281889589</v>
+        <v>18.87677386639115</v>
       </c>
       <c r="O15">
-        <v>16.66606368578446</v>
+        <v>24.68062959736421</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.62527789473024</v>
+        <v>12.0589051610443</v>
       </c>
       <c r="C16">
-        <v>8.672430702647091</v>
+        <v>5.112212220291627</v>
       </c>
       <c r="D16">
-        <v>14.09792825539797</v>
+        <v>15.24031738069811</v>
       </c>
       <c r="E16">
-        <v>15.22465438300843</v>
+        <v>16.65774724515859</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>27.70948463093387</v>
+        <v>34.7044076621998</v>
       </c>
       <c r="H16">
-        <v>9.609104100394797</v>
+        <v>15.69665757330378</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.285298290889772</v>
+        <v>9.327780440414632</v>
       </c>
       <c r="K16">
-        <v>14.36460103319985</v>
+        <v>11.11916940699793</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.61613100466614</v>
+        <v>18.9151880616485</v>
       </c>
       <c r="O16">
-        <v>16.56009564512235</v>
+        <v>24.70967092434662</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.27674529432194</v>
+        <v>11.94081946729231</v>
       </c>
       <c r="C17">
-        <v>8.516473744412895</v>
+        <v>5.029306401471159</v>
       </c>
       <c r="D17">
-        <v>13.8702112091422</v>
+        <v>15.20160204959573</v>
       </c>
       <c r="E17">
-        <v>14.98094307108135</v>
+        <v>16.61813759057416</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>27.44467889247085</v>
+        <v>34.7033804494757</v>
       </c>
       <c r="H17">
-        <v>9.608679268399341</v>
+        <v>15.71173918796955</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.234947543425876</v>
+        <v>9.327273410036957</v>
       </c>
       <c r="K17">
-        <v>14.08208141074617</v>
+        <v>11.03594724528913</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.70504734893278</v>
+        <v>18.93919858320938</v>
       </c>
       <c r="O17">
-        <v>16.49944266791007</v>
+        <v>24.72882059655693</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.0731863409226</v>
+        <v>11.87253528542708</v>
       </c>
       <c r="C18">
-        <v>8.425538497384284</v>
+        <v>4.980918060444007</v>
       </c>
       <c r="D18">
-        <v>13.7384528638128</v>
+        <v>15.17961068896438</v>
       </c>
       <c r="E18">
-        <v>14.83999945147561</v>
+        <v>16.59566626480689</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>27.29471160390539</v>
+        <v>34.70375251353882</v>
       </c>
       <c r="H18">
-        <v>9.609179649306224</v>
+        <v>15.72065046500503</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.206178492939614</v>
+        <v>9.327117356377551</v>
       </c>
       <c r="K18">
-        <v>13.91718265128788</v>
+        <v>10.98793947605606</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.75637819262754</v>
+        <v>18.95317258258889</v>
       </c>
       <c r="O18">
-        <v>16.46612654735605</v>
+        <v>24.74032459884853</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.00373204511877</v>
+        <v>11.84935526024548</v>
       </c>
       <c r="C19">
-        <v>8.394537821714598</v>
+        <v>4.964414339949148</v>
       </c>
       <c r="D19">
-        <v>13.69371037332099</v>
+        <v>15.17221284881573</v>
       </c>
       <c r="E19">
-        <v>14.79214962672882</v>
+        <v>16.58811182570409</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>27.24433805071438</v>
+        <v>34.70404383446846</v>
       </c>
       <c r="H19">
-        <v>9.609475094769689</v>
+        <v>15.72370832243405</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.196471070763494</v>
+        <v>9.327087828265505</v>
       </c>
       <c r="K19">
-        <v>13.86093770642963</v>
+        <v>10.97166232304508</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.77379122659229</v>
+        <v>18.9579321039255</v>
       </c>
       <c r="O19">
-        <v>16.4551129595126</v>
+        <v>24.74430369602869</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.31416682632334</v>
+        <v>11.95342817613959</v>
       </c>
       <c r="C20">
-        <v>8.533203274013905</v>
+        <v>5.038204752668977</v>
       </c>
       <c r="D20">
-        <v>13.89453362523588</v>
+        <v>15.20569485637086</v>
       </c>
       <c r="E20">
-        <v>15.00696668102016</v>
+        <v>16.62232203582136</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.47262566810512</v>
+        <v>34.70339013614628</v>
       </c>
       <c r="H20">
-        <v>9.608646966647919</v>
+        <v>15.71010922196429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.240287758977702</v>
+        <v>9.327313358260685</v>
       </c>
       <c r="K20">
-        <v>14.1124044266572</v>
+        <v>11.04482131448446</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.69556276059649</v>
+        <v>18.93662567974217</v>
       </c>
       <c r="O20">
-        <v>16.50573610777247</v>
+        <v>24.72673139529932</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.32036306950948</v>
+        <v>12.29857202237821</v>
       </c>
       <c r="C21">
-        <v>8.984360713040038</v>
+        <v>5.277696003061118</v>
       </c>
       <c r="D21">
-        <v>14.5597428262934</v>
+        <v>15.32145495136717</v>
       </c>
       <c r="E21">
-        <v>15.71934929175758</v>
+        <v>16.74094030044575</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.26757565429915</v>
+        <v>34.71269923199246</v>
       </c>
       <c r="H21">
-        <v>9.614903276434159</v>
+        <v>15.66724701036541</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.389762422479903</v>
+        <v>9.329689119937695</v>
       </c>
       <c r="K21">
-        <v>14.92866857325753</v>
+        <v>11.28882993347755</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.43490861955773</v>
+        <v>18.86699324394981</v>
       </c>
       <c r="O21">
-        <v>16.69479343667566</v>
+        <v>24.6735444612451</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.95081156145806</v>
+        <v>12.52038647953855</v>
       </c>
       <c r="C22">
-        <v>9.268223768512376</v>
+        <v>5.427859801650977</v>
       </c>
       <c r="D22">
-        <v>14.98699273572276</v>
+        <v>15.39945055510042</v>
       </c>
       <c r="E22">
-        <v>16.17751815224905</v>
+        <v>16.82111085240387</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.80782944762613</v>
+        <v>34.72735804313688</v>
       </c>
       <c r="H22">
-        <v>9.6260529910423</v>
+        <v>15.64134356994678</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.489069009035253</v>
+        <v>9.332443360168577</v>
       </c>
       <c r="K22">
-        <v>15.44094527795841</v>
+        <v>11.44670583369921</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.26602012200139</v>
+        <v>18.82293499791189</v>
       </c>
       <c r="O22">
-        <v>16.83297237192317</v>
+        <v>24.64315465507504</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.61679573258606</v>
+        <v>12.40236732959244</v>
       </c>
       <c r="C23">
-        <v>9.117726390583796</v>
+        <v>5.348300377386846</v>
       </c>
       <c r="D23">
-        <v>14.75967055703426</v>
+        <v>15.35761489096577</v>
       </c>
       <c r="E23">
-        <v>15.93368740785816</v>
+        <v>16.77808628705516</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.51759857726016</v>
+        <v>34.71875001196489</v>
       </c>
       <c r="H23">
-        <v>9.619435052602702</v>
+        <v>15.65497563844795</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.435923320931555</v>
+        <v>9.330863726756119</v>
       </c>
       <c r="K23">
-        <v>15.16946353960783</v>
+        <v>11.36260694920628</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.35603593416261</v>
+        <v>18.84631736487747</v>
       </c>
       <c r="O23">
-        <v>16.75785587697401</v>
+        <v>24.65897383040334</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.29725846991521</v>
+        <v>11.94772900379605</v>
       </c>
       <c r="C24">
-        <v>8.525643820081374</v>
+        <v>5.034184064194946</v>
       </c>
       <c r="D24">
-        <v>13.883540073243</v>
+        <v>15.20384366664572</v>
       </c>
       <c r="E24">
-        <v>14.99520398754855</v>
+        <v>16.62042930984697</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>27.4599838492011</v>
+        <v>34.70338275831224</v>
       </c>
       <c r="H24">
-        <v>9.608659255659974</v>
+        <v>15.71084537996833</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.237872891261332</v>
+        <v>9.327294875711576</v>
       </c>
       <c r="K24">
-        <v>14.09870310044717</v>
+        <v>11.04080984921346</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.69985008140564</v>
+        <v>18.93778835966041</v>
       </c>
       <c r="O24">
-        <v>16.50288601019082</v>
+        <v>24.72767438264243</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.75549332315786</v>
+        <v>11.44375452052051</v>
       </c>
       <c r="C25">
-        <v>7.83991503768044</v>
+        <v>4.668566440661005</v>
       </c>
       <c r="D25">
-        <v>12.90912273796824</v>
+        <v>15.04861961052124</v>
       </c>
       <c r="E25">
-        <v>13.95410815890391</v>
+        <v>16.46232891133619</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>26.4087344789979</v>
+        <v>34.72360609055888</v>
       </c>
       <c r="H25">
-        <v>9.625267394351834</v>
+        <v>15.78015972745436</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.031620004625919</v>
+        <v>9.328631016598948</v>
       </c>
       <c r="K25">
-        <v>12.85186432292091</v>
+        <v>10.68855180356959</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.07802695107757</v>
+        <v>19.04272140734774</v>
       </c>
       <c r="O25">
-        <v>16.28745566844424</v>
+        <v>24.82048990599929</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.06403580291998</v>
+        <v>13.51631407800435</v>
       </c>
       <c r="C2">
-        <v>4.377007299558759</v>
+        <v>7.294900295787278</v>
       </c>
       <c r="D2">
-        <v>14.94406876482549</v>
+        <v>12.17038921134021</v>
       </c>
       <c r="E2">
-        <v>16.35678265942679</v>
+        <v>13.16705391991911</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>34.77004468297362</v>
+        <v>25.71180632734117</v>
       </c>
       <c r="H2">
-        <v>15.83897694954581</v>
+        <v>9.659532735772263</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.334096853267642</v>
+        <v>5.886579020691634</v>
       </c>
       <c r="K2">
-        <v>10.42670214008421</v>
+        <v>11.85402776355459</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.12543094865401</v>
+        <v>12.36388434958697</v>
       </c>
       <c r="O2">
-        <v>24.90485738767283</v>
+        <v>16.17630423482488</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.80301688503346</v>
+        <v>12.61062270444899</v>
       </c>
       <c r="C3">
-        <v>4.165957524377777</v>
+        <v>6.900945147944168</v>
       </c>
       <c r="D3">
-        <v>14.87956042906489</v>
+        <v>11.65917179223179</v>
       </c>
       <c r="E3">
-        <v>16.29229328350535</v>
+        <v>12.62374975165139</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.82110890560872</v>
+        <v>25.28722350371898</v>
       </c>
       <c r="H3">
-        <v>15.88369070356707</v>
+        <v>9.695412945928586</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.340605682173548</v>
+        <v>5.792788419715897</v>
       </c>
       <c r="K3">
-        <v>10.24874268582078</v>
+        <v>11.12782697531565</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.18491144972413</v>
+        <v>12.56274685163205</v>
       </c>
       <c r="O3">
-        <v>24.9719954470897</v>
+        <v>16.12854794144162</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.64155852741815</v>
+        <v>12.02170046992918</v>
       </c>
       <c r="C4">
-        <v>4.029951350874351</v>
+        <v>6.647160825601445</v>
       </c>
       <c r="D4">
-        <v>14.84316532035108</v>
+        <v>11.3411902684285</v>
       </c>
       <c r="E4">
-        <v>16.25624913527222</v>
+        <v>12.28646086371901</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>34.8620878796265</v>
+        <v>25.04978680126032</v>
       </c>
       <c r="H4">
-        <v>15.91353829265657</v>
+        <v>9.723338176614533</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.34598782413817</v>
+        <v>5.737503387974858</v>
       </c>
       <c r="K4">
-        <v>10.1395938675004</v>
+        <v>10.65732090720987</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.22313279394131</v>
+        <v>12.68753960265322</v>
       </c>
       <c r="O4">
-        <v>25.01811877923332</v>
+        <v>16.11211280437153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.57556235041867</v>
+        <v>11.77341049946909</v>
       </c>
       <c r="C5">
-        <v>3.972953084123236</v>
+        <v>6.540799038724026</v>
       </c>
       <c r="D5">
-        <v>14.82915385038628</v>
+        <v>11.21077510884246</v>
       </c>
       <c r="E5">
-        <v>16.24246555571386</v>
+        <v>12.1482878166469</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>34.88120109367515</v>
+        <v>24.9588167919561</v>
       </c>
       <c r="H5">
-        <v>15.92630311064896</v>
+        <v>9.736149712616248</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.348529875553</v>
+        <v>5.715565038472094</v>
       </c>
       <c r="K5">
-        <v>10.0952014854398</v>
+        <v>10.45941270381239</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.23913708203697</v>
+        <v>12.73909197558027</v>
       </c>
       <c r="O5">
-        <v>25.03814459938284</v>
+        <v>16.10854727827847</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.56459458946149</v>
+        <v>11.73167957296995</v>
       </c>
       <c r="C6">
-        <v>3.963394768307788</v>
+        <v>6.522961677249259</v>
       </c>
       <c r="D6">
-        <v>14.82687709678217</v>
+        <v>11.18907542523331</v>
       </c>
       <c r="E6">
-        <v>16.24023175479338</v>
+        <v>12.12530691093209</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>34.88452041634758</v>
+        <v>24.94405860410247</v>
       </c>
       <c r="H6">
-        <v>15.9284590361634</v>
+        <v>9.738362084561889</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.348973055330207</v>
+        <v>5.711958189591622</v>
       </c>
       <c r="K6">
-        <v>10.08783706733119</v>
+        <v>10.42617808264589</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.24182051686411</v>
+        <v>12.74769500386527</v>
       </c>
       <c r="O6">
-        <v>25.04154411016138</v>
+        <v>16.10814115366606</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.64066915837942</v>
+        <v>12.01838560788199</v>
       </c>
       <c r="C7">
-        <v>4.029188970031348</v>
+        <v>6.645738234951541</v>
       </c>
       <c r="D7">
-        <v>14.84297302247006</v>
+        <v>11.33943455302247</v>
       </c>
       <c r="E7">
-        <v>16.25605956779932</v>
+        <v>12.28460006261311</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>34.86233588243325</v>
+        <v>25.04853661239479</v>
       </c>
       <c r="H7">
-        <v>15.91370800740704</v>
+        <v>9.723505225935995</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.346020694526592</v>
+        <v>5.737205113231722</v>
       </c>
       <c r="K7">
-        <v>10.13899475007745</v>
+        <v>10.65467681207122</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.2233468955581</v>
+        <v>12.68823200036974</v>
       </c>
       <c r="O7">
-        <v>25.01838387625402</v>
+        <v>16.11205218305357</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.97434203588207</v>
+        <v>13.21081646007466</v>
       </c>
       <c r="C8">
-        <v>4.305591766609813</v>
+        <v>7.161558442044289</v>
       </c>
       <c r="D8">
-        <v>14.92116679596398</v>
+        <v>11.99508016161677</v>
       </c>
       <c r="E8">
-        <v>16.33381654677598</v>
+        <v>12.98060602356647</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.78565034458819</v>
+        <v>25.56055267644876</v>
       </c>
       <c r="H8">
-        <v>15.85389749574218</v>
+        <v>9.67065001556495</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.336053723530444</v>
+        <v>5.853769427097703</v>
       </c>
       <c r="K8">
-        <v>10.36535082480615</v>
+        <v>11.60874909870932</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.14558774986147</v>
+        <v>12.43190720204348</v>
       </c>
       <c r="O8">
-        <v>24.92698834927973</v>
+        <v>16.15709859056029</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.61507664271142</v>
+        <v>15.29085316440607</v>
       </c>
       <c r="C9">
-        <v>4.795251911110246</v>
+        <v>8.077173545914553</v>
       </c>
       <c r="D9">
-        <v>15.0994320857208</v>
+        <v>13.24096924449153</v>
       </c>
       <c r="E9">
-        <v>16.51393521307705</v>
+        <v>14.30831620577947</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>34.71188418810839</v>
+        <v>26.75085913202295</v>
       </c>
       <c r="H9">
-        <v>15.75560217032308</v>
+        <v>9.616101979068752</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.327486036600106</v>
+        <v>6.100070100655802</v>
       </c>
       <c r="K9">
-        <v>10.80773116230705</v>
+        <v>13.28421789930006</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.00653214049431</v>
+        <v>11.94955817454027</v>
       </c>
       <c r="O9">
-        <v>24.7867305129738</v>
+        <v>16.35238824983689</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.07232836578513</v>
+        <v>16.66463014598476</v>
       </c>
       <c r="C10">
-        <v>5.121576712459789</v>
+        <v>8.69005929223435</v>
       </c>
       <c r="D10">
-        <v>15.24477214509719</v>
+        <v>14.12380437595542</v>
       </c>
       <c r="E10">
-        <v>16.66230872535537</v>
+        <v>15.25235733783678</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>34.70465536607496</v>
+        <v>27.74001769572009</v>
       </c>
       <c r="H10">
-        <v>15.69496873900329</v>
+        <v>9.609254936134141</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.327856648749879</v>
+        <v>6.291069278946185</v>
       </c>
       <c r="K10">
-        <v>11.12864537625443</v>
+        <v>14.39651370859758</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.91247046009035</v>
+        <v>11.60600986744769</v>
       </c>
       <c r="O10">
-        <v>24.70755219758524</v>
+        <v>16.56723152477333</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.27641844868482</v>
+        <v>17.25675190419496</v>
       </c>
       <c r="C11">
-        <v>5.262546494258237</v>
+        <v>8.955767184605289</v>
       </c>
       <c r="D11">
-        <v>15.31381551387775</v>
+        <v>14.51706795972357</v>
       </c>
       <c r="E11">
-        <v>16.73309776789767</v>
+        <v>15.67361198288931</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>34.71159617492079</v>
+        <v>28.21485461626099</v>
       </c>
       <c r="H11">
-        <v>15.66990149270735</v>
+        <v>9.614093127116046</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.329465047433153</v>
+        <v>6.379981161773769</v>
       </c>
       <c r="K11">
-        <v>11.2731063604596</v>
+        <v>14.87701446639013</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.87142065965516</v>
+        <v>11.45170984658225</v>
       </c>
       <c r="O11">
-        <v>24.67673630501803</v>
+        <v>16.68170051504356</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.35306372380256</v>
+        <v>17.47631148520904</v>
       </c>
       <c r="C12">
-        <v>5.314838788305674</v>
+        <v>9.054498377618232</v>
       </c>
       <c r="D12">
-        <v>15.34036366164677</v>
+        <v>14.66470551431371</v>
       </c>
       <c r="E12">
-        <v>16.76035963343499</v>
+        <v>15.83186459576615</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>34.71569576037309</v>
+        <v>28.39821968702505</v>
       </c>
       <c r="H12">
-        <v>15.6607709661093</v>
+        <v>9.617131467082396</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.330280330736818</v>
+        <v>6.413928332485345</v>
       </c>
       <c r="K12">
-        <v>11.32754023673302</v>
+        <v>15.05533005993042</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.8561249470402</v>
+        <v>11.39353368279237</v>
       </c>
       <c r="O12">
-        <v>24.6658167755737</v>
+        <v>16.72754849703184</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.33658637109288</v>
+        <v>17.42923194234981</v>
       </c>
       <c r="C13">
-        <v>5.303625383285273</v>
+        <v>9.033318750521008</v>
       </c>
       <c r="D13">
-        <v>15.3346284177102</v>
+        <v>14.63296730301956</v>
       </c>
       <c r="E13">
-        <v>16.75446833484894</v>
+        <v>15.79783963202231</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>34.7147474163392</v>
+        <v>28.35857100981635</v>
       </c>
       <c r="H13">
-        <v>15.66272128974597</v>
+        <v>9.616422446946508</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.330095587475629</v>
+        <v>6.406605025584088</v>
       </c>
       <c r="K13">
-        <v>11.31582974005172</v>
+        <v>15.01708801832243</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.85940809836266</v>
+        <v>11.40605218460131</v>
       </c>
       <c r="O13">
-        <v>24.66813512071383</v>
+        <v>16.71756161822896</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.28273732744629</v>
+        <v>17.27490835689248</v>
       </c>
       <c r="C14">
-        <v>5.266870529611306</v>
+        <v>8.963927669194796</v>
       </c>
       <c r="D14">
-        <v>15.31599167666483</v>
+        <v>14.52924030915425</v>
       </c>
       <c r="E14">
-        <v>16.73533159298083</v>
+        <v>15.68665735817319</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>34.7119039672123</v>
+        <v>28.22986906181967</v>
       </c>
       <c r="H14">
-        <v>15.66914306469826</v>
+        <v>9.614318554960915</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.329527993442809</v>
+        <v>6.382768511671631</v>
       </c>
       <c r="K14">
-        <v>11.27759037087852</v>
+        <v>14.89175737645753</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.8701572893181</v>
+        <v>11.44691875514396</v>
       </c>
       <c r="O14">
-        <v>24.67582291328629</v>
+        <v>16.68542180475859</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.24966783053676</v>
+        <v>17.17977496581216</v>
       </c>
       <c r="C15">
-        <v>5.244214797967168</v>
+        <v>8.921177931499207</v>
       </c>
       <c r="D15">
-        <v>15.30462805943833</v>
+        <v>14.46553532326799</v>
       </c>
       <c r="E15">
-        <v>16.72366857065632</v>
+        <v>15.61838766161037</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>34.7103538591639</v>
+        <v>28.15149764358476</v>
       </c>
       <c r="H15">
-        <v>15.67312372282166</v>
+        <v>9.613188828802025</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.329207155192377</v>
+        <v>6.368203816476383</v>
       </c>
       <c r="K15">
-        <v>11.25413096797453</v>
+        <v>14.81451559957115</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.87677386639115</v>
+        <v>11.47198281889589</v>
       </c>
       <c r="O15">
-        <v>24.68062959736421</v>
+        <v>16.66606368578442</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.0589051610443</v>
+        <v>16.62527789473031</v>
       </c>
       <c r="C16">
-        <v>5.112212220291627</v>
+        <v>8.672430702647169</v>
       </c>
       <c r="D16">
-        <v>15.24031738069811</v>
+        <v>14.09792825539799</v>
       </c>
       <c r="E16">
-        <v>16.65774724515859</v>
+        <v>15.22465438300842</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>34.7044076621998</v>
+        <v>27.70948463093361</v>
       </c>
       <c r="H16">
-        <v>15.69665757330378</v>
+        <v>9.609104100394644</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.327780440414632</v>
+        <v>6.285298290889727</v>
       </c>
       <c r="K16">
-        <v>11.11916940699793</v>
+        <v>14.3646010331999</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.9151880616485</v>
+        <v>11.61613100466608</v>
       </c>
       <c r="O16">
-        <v>24.70967092434662</v>
+        <v>16.56009564512217</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.94081946729231</v>
+        <v>16.27674529432197</v>
       </c>
       <c r="C17">
-        <v>5.029306401471159</v>
+        <v>8.516473744412682</v>
       </c>
       <c r="D17">
-        <v>15.20160204959573</v>
+        <v>13.87021120914221</v>
       </c>
       <c r="E17">
-        <v>16.61813759057416</v>
+        <v>14.98094307108133</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>34.7033804494757</v>
+        <v>27.44467889247072</v>
       </c>
       <c r="H17">
-        <v>15.71173918796955</v>
+        <v>9.60867926839933</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.327273410036957</v>
+        <v>6.234947543425822</v>
       </c>
       <c r="K17">
-        <v>11.03594724528913</v>
+        <v>14.08208141074615</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.93919858320938</v>
+        <v>11.70504734893271</v>
       </c>
       <c r="O17">
-        <v>24.72882059655693</v>
+        <v>16.49944266791</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.87253528542708</v>
+        <v>16.07318634092259</v>
       </c>
       <c r="C18">
-        <v>4.980918060444007</v>
+        <v>8.425538497384448</v>
       </c>
       <c r="D18">
-        <v>15.17961068896438</v>
+        <v>13.73845286381286</v>
       </c>
       <c r="E18">
-        <v>16.59566626480689</v>
+        <v>14.83999945147564</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>34.70375251353882</v>
+        <v>27.29471160390535</v>
       </c>
       <c r="H18">
-        <v>15.72065046500503</v>
+        <v>9.609179649306135</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.327117356377551</v>
+        <v>6.206178492939594</v>
       </c>
       <c r="K18">
-        <v>10.98793947605606</v>
+        <v>13.9171826512879</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.95317258258889</v>
+        <v>11.75637819262751</v>
       </c>
       <c r="O18">
-        <v>24.74032459884853</v>
+        <v>16.466126547356</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.84935526024548</v>
+        <v>16.00373204511874</v>
       </c>
       <c r="C19">
-        <v>4.964414339949148</v>
+        <v>8.394537821714694</v>
       </c>
       <c r="D19">
-        <v>15.17221284881573</v>
+        <v>13.69371037332099</v>
       </c>
       <c r="E19">
-        <v>16.58811182570409</v>
+        <v>14.79214962672881</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>34.70404383446846</v>
+        <v>27.24433805071432</v>
       </c>
       <c r="H19">
-        <v>15.72370832243405</v>
+        <v>9.609475094769699</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.327087828265505</v>
+        <v>6.196471070763477</v>
       </c>
       <c r="K19">
-        <v>10.97166232304508</v>
+        <v>13.86093770642963</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.9579321039255</v>
+        <v>11.77379122659225</v>
       </c>
       <c r="O19">
-        <v>24.74430369602869</v>
+        <v>16.45511295951256</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.95342817613959</v>
+        <v>16.31416682632332</v>
       </c>
       <c r="C20">
-        <v>5.038204752668977</v>
+        <v>8.533203274013854</v>
       </c>
       <c r="D20">
-        <v>15.20569485637086</v>
+        <v>13.89453362523592</v>
       </c>
       <c r="E20">
-        <v>16.62232203582136</v>
+        <v>15.00696668102015</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>34.70339013614628</v>
+        <v>27.47262566810526</v>
       </c>
       <c r="H20">
-        <v>15.71010922196429</v>
+        <v>9.60864696664793</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.327313358260685</v>
+        <v>6.240287758977653</v>
       </c>
       <c r="K20">
-        <v>11.04482131448446</v>
+        <v>14.11240442665718</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.93662567974217</v>
+        <v>11.69556276059655</v>
       </c>
       <c r="O20">
-        <v>24.72673139529932</v>
+        <v>16.50573610777257</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.29857202237821</v>
+        <v>17.32036306950939</v>
       </c>
       <c r="C21">
-        <v>5.277696003061118</v>
+        <v>8.984360713040051</v>
       </c>
       <c r="D21">
-        <v>15.32145495136717</v>
+        <v>14.55974282629333</v>
       </c>
       <c r="E21">
-        <v>16.74094030044575</v>
+        <v>15.71934929175755</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>34.71269923199246</v>
+        <v>28.26757565429907</v>
       </c>
       <c r="H21">
-        <v>15.66724701036541</v>
+        <v>9.614903276434241</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.329689119937695</v>
+        <v>6.389762422479853</v>
       </c>
       <c r="K21">
-        <v>11.28882993347755</v>
+        <v>14.9286685732575</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.86699324394981</v>
+        <v>11.43490861955777</v>
       </c>
       <c r="O21">
-        <v>24.6735444612451</v>
+        <v>16.69479343667569</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.52038647953855</v>
+        <v>17.95081156145809</v>
       </c>
       <c r="C22">
-        <v>5.427859801650977</v>
+        <v>9.268223768512266</v>
       </c>
       <c r="D22">
-        <v>15.39945055510042</v>
+        <v>14.98699273572274</v>
       </c>
       <c r="E22">
-        <v>16.82111085240387</v>
+        <v>16.17751815224904</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>34.72735804313688</v>
+        <v>28.80782944762615</v>
       </c>
       <c r="H22">
-        <v>15.64134356994678</v>
+        <v>9.626052991042187</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.332443360168577</v>
+        <v>6.489069009035259</v>
       </c>
       <c r="K22">
-        <v>11.44670583369921</v>
+        <v>15.44094527795843</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.82293499791189</v>
+        <v>11.26602012200133</v>
       </c>
       <c r="O22">
-        <v>24.64315465507504</v>
+        <v>16.83297237192316</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.40236732959244</v>
+        <v>17.61679573258608</v>
       </c>
       <c r="C23">
-        <v>5.348300377386846</v>
+        <v>9.117726390583877</v>
       </c>
       <c r="D23">
-        <v>15.35761489096577</v>
+        <v>14.75967055703431</v>
       </c>
       <c r="E23">
-        <v>16.77808628705516</v>
+        <v>15.93368740785818</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>34.71875001196489</v>
+        <v>28.51759857726021</v>
       </c>
       <c r="H23">
-        <v>15.65497563844795</v>
+        <v>9.619435052602702</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.330863726756119</v>
+        <v>6.435923320931555</v>
       </c>
       <c r="K23">
-        <v>11.36260694920628</v>
+        <v>15.16946353960783</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.84631736487747</v>
+        <v>11.35603593416268</v>
       </c>
       <c r="O23">
-        <v>24.65897383040334</v>
+        <v>16.75785587697404</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.94772900379605</v>
+        <v>16.29725846991521</v>
       </c>
       <c r="C24">
-        <v>5.034184064194946</v>
+        <v>8.525643820081374</v>
       </c>
       <c r="D24">
-        <v>15.20384366664572</v>
+        <v>13.883540073243</v>
       </c>
       <c r="E24">
-        <v>16.62042930984697</v>
+        <v>14.99520398754855</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>34.70338275831224</v>
+        <v>27.45998384920128</v>
       </c>
       <c r="H24">
-        <v>15.71084537996833</v>
+        <v>9.608659255660026</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.327294875711576</v>
+        <v>6.237872891261349</v>
       </c>
       <c r="K24">
-        <v>11.04080984921346</v>
+        <v>14.09870310044714</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.93778835966041</v>
+        <v>11.69985008140571</v>
       </c>
       <c r="O24">
-        <v>24.72767438264243</v>
+        <v>16.50288601019095</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.44375452052051</v>
+        <v>14.75549332315781</v>
       </c>
       <c r="C25">
-        <v>4.668566440661005</v>
+        <v>7.839915037680592</v>
       </c>
       <c r="D25">
-        <v>15.04861961052124</v>
+        <v>12.90912273796831</v>
       </c>
       <c r="E25">
-        <v>16.46232891133619</v>
+        <v>13.95410815890395</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>34.72360609055888</v>
+        <v>26.40873447899788</v>
       </c>
       <c r="H25">
-        <v>15.78015972745436</v>
+        <v>9.625267394351864</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.328631016598948</v>
+        <v>6.031620004625922</v>
       </c>
       <c r="K25">
-        <v>10.68855180356959</v>
+        <v>12.85186432292089</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.04272140734774</v>
+        <v>12.07802695107763</v>
       </c>
       <c r="O25">
-        <v>24.82048990599929</v>
+        <v>16.28745566844429</v>
       </c>
     </row>
   </sheetData>
